--- a/Codigo/producoes.xlsx
+++ b/Codigo/producoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\UFU\CC\lexico\diagrama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5539E7-893E-41E8-AB3D-EE7E79842971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6FDFCF-DCA2-47AD-AB5D-ED6274F43F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11505" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,100 +33,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <t>bloco identificador programa</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>ε</t>
   </si>
   <si>
-    <t>fim sequencia_de_comandos declaracao_das_variaveis inicio</t>
-  </si>
-  <si>
-    <t>lista_ids_aux identificador</t>
-  </si>
-  <si>
-    <t>lista_ids ,</t>
-  </si>
-  <si>
-    <t>sequencia_de_comandos comando</t>
-  </si>
-  <si>
-    <t>selecao</t>
-  </si>
-  <si>
-    <t>repeticao</t>
-  </si>
-  <si>
-    <t>atribuicao</t>
-  </si>
-  <si>
-    <t>selecao_aux bloco entao ) condicao ( se</t>
-  </si>
-  <si>
-    <t>bloco senao</t>
-  </si>
-  <si>
-    <t>bloco faca ) condicao ( enquanto</t>
-  </si>
-  <si>
-    <t>) condicao ( enquanto bloco repita</t>
-  </si>
-  <si>
-    <t>; exp1 &lt;-- identificador</t>
-  </si>
-  <si>
-    <t>exp1 op_rela exp1</t>
-  </si>
-  <si>
-    <t>exp1_aux exp2</t>
-  </si>
-  <si>
-    <t>exp1_aux exp2 +</t>
-  </si>
-  <si>
-    <t>exp1_aux exp2 -</t>
-  </si>
-  <si>
-    <t>exp2_aux exp3</t>
-  </si>
-  <si>
-    <t>exp2_aux exp3 *</t>
-  </si>
-  <si>
-    <t>exp2_aux exp3 /</t>
-  </si>
-  <si>
-    <t>exp3_aux termo</t>
-  </si>
-  <si>
-    <t>exp3_aux termo ^</t>
-  </si>
-  <si>
-    <t>) exp1 (</t>
-  </si>
-  <si>
-    <t>identificador</t>
-  </si>
-  <si>
-    <t>constante</t>
-  </si>
-  <si>
-    <t>numero</t>
-  </si>
-  <si>
-    <t>letra</t>
-  </si>
-  <si>
-    <t>declaracao_das_variaveis ; lista_ids : tipo</t>
+    <t>FUNCTION ID ( ) bloco</t>
+  </si>
+  <si>
+    <t>ComandoAtribuicao</t>
+  </si>
+  <si>
+    <t>ComandoRepeticao</t>
+  </si>
+  <si>
+    <t>{ declaracaoVariavel sequenciaComandos }</t>
+  </si>
+  <si>
+    <t>tipo : lista_ids</t>
+  </si>
+  <si>
+    <t>ID lista_ids'</t>
+  </si>
+  <si>
+    <t>, lista_ids</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>SE ( cond ) entao bloco ComandoCondicional'</t>
+  </si>
+  <si>
+    <t>ENQUANTO ( cond ) FACA bloco</t>
+  </si>
+  <si>
+    <t>ComancoCondicional</t>
+  </si>
+  <si>
+    <t>SENAO bloco</t>
+  </si>
+  <si>
+    <t>REPITA bloco ATE ( cond )</t>
+  </si>
+  <si>
+    <t>ID = ComandoAtribuicao'</t>
+  </si>
+  <si>
+    <t>expressao</t>
+  </si>
+  <si>
+    <t>CONSCHAR ;</t>
+  </si>
+  <si>
+    <t>expressao RELOP expressao</t>
+  </si>
+  <si>
+    <t>termo expressao'</t>
+  </si>
+  <si>
+    <t>+ termo expressao'</t>
+  </si>
+  <si>
+    <t>- termo expressao'</t>
+  </si>
+  <si>
+    <t>fator termo'</t>
+  </si>
+  <si>
+    <t>* fator termo'</t>
+  </si>
+  <si>
+    <t>/ fator termo'</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CONSTFLOAT</t>
+  </si>
+  <si>
+    <t>( expressao )</t>
+  </si>
+  <si>
+    <t>CONSTINT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,16 +146,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,13 +175,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +518,7 @@
   <dimension ref="A2:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,39 +547,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -550,7 +587,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -558,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -566,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -574,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -582,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -590,31 +627,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -622,7 +659,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -630,7 +667,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -638,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -646,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -654,7 +691,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -662,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -670,31 +707,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>20</v>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -702,7 +739,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -710,23 +747,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
+      <c r="B31" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -734,7 +771,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -742,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -750,7 +787,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -758,16 +795,11 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="B36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Codigo/producoes.xlsx
+++ b/Codigo/producoes.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6FDFCF-DCA2-47AD-AB5D-ED6274F43F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9CDD3-F783-4443-A7E6-0A409AFF9CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ε</t>
   </si>
@@ -71,30 +74,15 @@
     <t>INT</t>
   </si>
   <si>
-    <t>SE ( cond ) entao bloco ComandoCondicional'</t>
-  </si>
-  <si>
-    <t>ENQUANTO ( cond ) FACA bloco</t>
-  </si>
-  <si>
     <t>ComancoCondicional</t>
   </si>
   <si>
-    <t>SENAO bloco</t>
-  </si>
-  <si>
-    <t>REPITA bloco ATE ( cond )</t>
-  </si>
-  <si>
     <t>ID = ComandoAtribuicao'</t>
   </si>
   <si>
     <t>expressao</t>
   </si>
   <si>
-    <t>CONSCHAR ;</t>
-  </si>
-  <si>
     <t>expressao RELOP expressao</t>
   </si>
   <si>
@@ -126,6 +114,27 @@
   </si>
   <si>
     <t>CONSTINT</t>
+  </si>
+  <si>
+    <t>CONSTCHAR ;</t>
+  </si>
+  <si>
+    <t>SE ( cond ) entao ComandoBloco ComandoCondicional'</t>
+  </si>
+  <si>
+    <t>SENAO ComandoBloco</t>
+  </si>
+  <si>
+    <t>ENQUANTO ( cond ) FACA ComandoBloco</t>
+  </si>
+  <si>
+    <t>REPITA ComandoBloco ATE ( cond )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequenciaComandos   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloco </t>
   </si>
 </sst>
 </file>
@@ -515,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B036541-4438-40AE-8FBB-B18DCF2358C6}">
-  <dimension ref="A2:B36"/>
+  <dimension ref="A2:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -643,7 +652,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -659,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -667,7 +676,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -675,7 +684,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -683,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -691,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -699,7 +708,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -707,7 +716,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -715,7 +724,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -723,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -739,7 +748,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -747,7 +756,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -755,7 +764,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -771,7 +780,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -779,7 +788,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -787,7 +796,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -795,11 +804,24 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Codigo/producoes.xlsx
+++ b/Codigo/producoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F9CDD3-F783-4443-A7E6-0A409AFF9CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5582BBC7-52AC-4B9B-BEC1-91F43C30F53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>ε</t>
   </si>
@@ -53,12 +53,6 @@
     <t>{ declaracaoVariavel sequenciaComandos }</t>
   </si>
   <si>
-    <t>tipo : lista_ids</t>
-  </si>
-  <si>
-    <t>ID lista_ids'</t>
-  </si>
-  <si>
     <t>, lista_ids</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>CONSTCHAR ;</t>
   </si>
   <si>
-    <t>SE ( cond ) entao ComandoBloco ComandoCondicional'</t>
-  </si>
-  <si>
     <t>SENAO ComandoBloco</t>
   </si>
   <si>
@@ -135,6 +126,18 @@
   </si>
   <si>
     <t xml:space="preserve">bloco </t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>SE ( cond ) ENTAO ComandoBloco ComandoCondicional'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tipo : lista_ids </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID lista_ids' </t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B036541-4438-40AE-8FBB-B18DCF2358C6}">
-  <dimension ref="A2:B37"/>
+  <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +559,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -596,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -604,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -612,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -620,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -628,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -636,7 +639,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -644,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -652,7 +655,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -668,7 +671,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -676,7 +679,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -684,7 +687,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -692,7 +695,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -708,7 +711,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -716,7 +719,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -724,7 +727,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -732,7 +735,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -748,7 +751,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -756,7 +759,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -764,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -780,7 +783,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -788,7 +791,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -796,7 +799,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -804,7 +807,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -812,7 +815,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -820,7 +823,15 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Codigo/producoes.xlsx
+++ b/Codigo/producoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\compiladores\Codigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5582BBC7-52AC-4B9B-BEC1-91F43C30F53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37E1DB1-FA5F-435D-BEAE-0812996A9B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
+    <workbookView xWindow="4005" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
